--- a/bh3/558405856547845602_2021-08-13_18-59-55.xlsx
+++ b/bh3/558405856547845602_2021-08-13_18-59-55.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-19 20:49:17</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44427.86755787037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-19 20:43:37</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44427.86362268519</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>5194630695</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-18 21:03:45</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44426.87760416666</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>5184405958</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-17 18:55:25</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44425.7884837963</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -833,10 +841,8 @@
           <t>5182585150</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-17 15:08:11</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44425.63068287037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -900,10 +906,8 @@
           <t>5180033084</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-17 09:24:20</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44425.39189814815</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -963,10 +967,8 @@
           <t>5148928585</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-15 12:37:07</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44423.52577546296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1034,10 +1036,8 @@
           <t>5148928585</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-15 12:32:14</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44423.52238425926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1105,10 +1105,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-15 06:52:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44423.2862037037</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1168,10 +1166,8 @@
           <t>5161417676</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-15 01:24:27</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44423.05864583333</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1235,10 +1231,8 @@
           <t>5154400266</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-14 23:08:09</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44422.96399305556</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1307,10 +1301,8 @@
           <t>5148928585</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:48:55</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44422.95063657407</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1374,10 +1366,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:17:59</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44422.92915509259</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1449,10 +1439,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:06:14</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44422.92099537037</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1512,10 +1500,8 @@
           <t>5159635794</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:54:56</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44422.91314814815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1579,10 +1565,8 @@
           <t>5157487441</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:07:22</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44422.75511574074</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1646,10 +1630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:50:39</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44422.74350694445</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1725,10 +1707,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:34:22</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44422.73219907407</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1800,10 +1780,8 @@
           <t>5157148098</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:27:42</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44422.72756944445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1863,10 +1841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:16:19</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44422.71966435185</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1930,10 +1906,8 @@
           <t>5156992192</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:08:42</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44422.714375</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1997,10 +1971,8 @@
           <t>5154332305</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:55:49</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44422.70542824074</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2076,10 +2048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:54:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44422.70425925926</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2155,10 +2125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:25:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44422.68453703704</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2226,10 +2194,8 @@
           <t>5150641277</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:06:32</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44422.67120370371</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2305,10 +2271,8 @@
           <t>5149216097</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:04:48</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44422.67</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2380,10 +2344,8 @@
           <t>5156504298</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:04:17</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44422.66964120371</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2455,10 +2417,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:56:31</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44422.66424768518</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2518,10 +2478,8 @@
           <t>5150641277</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:55:21</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44422.6634375</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2593,10 +2551,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:49:53</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44422.6596412037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2656,10 +2612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:12:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44422.63335648148</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2728,10 +2682,8 @@
           <t>5155955224</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:46:49</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44422.61584490741</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2803,10 +2755,8 @@
           <t>5155910128</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:40:20</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44422.61134259259</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2870,10 +2820,8 @@
           <t>5155824486</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:29:38</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44422.60391203704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2941,10 +2889,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:26:55</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44422.60202546296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3004,10 +2950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:24:29</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44422.60033564815</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3074,10 +3018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:24:26</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44422.60030092593</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3145,10 +3087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:24:21</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44422.60024305555</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3212,10 +3152,8 @@
           <t>5153666612</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:07:44</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44422.5887037037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3287,10 +3225,8 @@
           <t>5149281264</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:07:03</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44422.58822916666</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3362,10 +3298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:02:58</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44422.54372685185</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3429,10 +3363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:02:18</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44422.54326388889</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3508,10 +3440,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:56:15</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44422.5390625</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3583,10 +3513,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:37:01</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44422.52570601852</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3646,10 +3574,8 @@
           <t>5154847291</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:31:26</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44422.52182870371</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3713,10 +3639,8 @@
           <t>5154819906</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:28:51</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44422.52003472222</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3784,10 +3708,8 @@
           <t>5148800081</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:06:07</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44422.50424768519</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3863,10 +3785,8 @@
           <t>5154400266</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:41:48</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44422.48736111111</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3930,10 +3850,8 @@
           <t>5149411537</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:39:02</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44422.48543981482</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3997,10 +3915,8 @@
           <t>5154332305</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:33:41</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44422.48172453704</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4064,10 +3980,8 @@
           <t>5148800081</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:30:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44422.47916666666</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4139,10 +4053,8 @@
           <t>5154290082</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:28:12</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44422.47791666666</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4206,10 +4118,8 @@
           <t>5154272491</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:26:38</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44422.4768287037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4273,10 +4183,8 @@
           <t>5154239833</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:22:59</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44422.47429398148</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4340,10 +4248,8 @@
           <t>5148744968</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:20:54</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44422.47284722222</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4407,10 +4313,8 @@
           <t>5154125508</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:07:30</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44422.46354166666</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4478,10 +4382,8 @@
           <t>5148800081</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:58:12</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44422.45708333333</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4549,10 +4451,8 @@
           <t>5148800081</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:57:27</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44422.4565625</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4620,10 +4520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:47:07</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44422.44938657407</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4691,10 +4589,8 @@
           <t>5150163054</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:30:42</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44422.43798611111</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4758,10 +4654,8 @@
           <t>5153470420</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:06:51</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44422.42142361111</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4825,10 +4719,8 @@
           <t>5153666612</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:04:41</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44422.41991898148</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -4896,10 +4788,8 @@
           <t>5148743535</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:02:03</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44422.41809027778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4976,10 +4866,8 @@
           <t>5153614255</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:57:38</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44422.41502314815</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5043,10 +4931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:42:55</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44422.40480324074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5110,10 +4996,8 @@
           <t>5150163054</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:41:10</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44422.40358796297</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5185,10 +5069,8 @@
           <t>5150641277</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:40:39</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44422.40322916667</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5264,10 +5146,8 @@
           <t>5153470420</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:34:00</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44422.39861111111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5343,10 +5223,8 @@
           <t>5153450188</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:31:17</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44422.39672453704</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5422,10 +5300,8 @@
           <t>5153422155</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:27:11</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44422.39387731482</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5497,10 +5373,8 @@
           <t>5148743535</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:19:34</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44422.38858796296</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5572,10 +5446,8 @@
           <t>5153345662</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:13:06</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44422.38409722222</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5651,10 +5523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-14 08:42:24</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44422.36277777778</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5730,10 +5600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-14 08:39:03</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44422.36045138889</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5805,10 +5673,8 @@
           <t>5148800081</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-14 08:32:51</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44422.35614583334</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5880,10 +5746,8 @@
           <t>5152905966</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-14 07:37:45</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44422.31788194444</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5947,10 +5811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-14 07:20:29</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44422.3058912037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6014,10 +5876,8 @@
           <t>5149480165</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-14 06:28:21</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44422.2696875</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6081,10 +5941,8 @@
           <t>5152698253</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-14 05:44:00</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44422.23888888889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6160,10 +6018,8 @@
           <t>5152637366</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-14 04:42:58</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44422.19650462963</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6235,10 +6091,8 @@
           <t>5148838350</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-14 03:45:38</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44422.15668981482</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6314,10 +6168,8 @@
           <t>5152179795</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-14 03:08:24</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44422.13083333334</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6393,10 +6245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-14 02:14:13</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44422.09320601852</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6468,10 +6318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-14 02:08:01</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44422.08890046296</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6539,10 +6387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:50:43</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44422.07688657408</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6610,10 +6456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:50:10</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44422.07650462963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6689,10 +6533,8 @@
           <t>5152240345</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:49:09</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44422.07579861111</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6768,10 +6610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:48:43</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44422.07549768518</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6847,10 +6687,8 @@
           <t>5152227299</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:46:55</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44422.07424768519</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6918,10 +6756,8 @@
           <t>5152227140</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:46:48</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44422.07416666667</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6997,10 +6833,8 @@
           <t>5152230044</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:45:34</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44422.07331018519</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7068,10 +6902,8 @@
           <t>5152218872</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:44:46</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44422.07275462963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7139,10 +6971,8 @@
           <t>5148800081</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:43:59</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44422.07221064815</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7210,10 +7040,8 @@
           <t>5152207383</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:42:17</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44422.07103009259</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7281,10 +7109,8 @@
           <t>5152179795</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:37:17</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44422.06755787037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7361,10 +7187,8 @@
           <t>5152169372</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:34:31</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44422.06563657407</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7440,10 +7264,8 @@
           <t>5152127399</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:25:09</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44422.05913194444</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7519,10 +7341,8 @@
           <t>5152061572</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:12:32</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44422.05037037037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7586,10 +7406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:00:24</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44422.04194444444</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7653,10 +7471,8 @@
           <t>5148800081</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:50:12</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44422.03486111111</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7724,10 +7540,8 @@
           <t>5151897965</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:46:44</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44422.0324537037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7799,10 +7613,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:37:00</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44422.02569444444</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7878,10 +7690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:34:27</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44422.02392361111</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7949,10 +7759,8 @@
           <t>5151805226</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:32:00</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44422.02222222222</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8028,10 +7836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:31:01</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44422.02153935185</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8107,10 +7913,8 @@
           <t>5150163054</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:30:51</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44422.02142361111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8182,10 +7986,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:19:51</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44422.01378472222</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8253,10 +8055,8 @@
           <t>5150163054</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:15:49</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44422.0109837963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8324,10 +8124,8 @@
           <t>5151591188</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:05:44</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44422.00398148148</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8403,10 +8201,8 @@
           <t>5149140423</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:04:56</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44422.00342592593</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8482,10 +8278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:55:28</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44421.99685185185</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8557,10 +8351,8 @@
           <t>5151440429</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:48:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44421.99193287037</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8636,10 +8428,8 @@
           <t>5151437969</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:47:48</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44421.99152777778</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8715,10 +8505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:46:56</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44421.99092592593</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8790,10 +8578,8 @@
           <t>5150121806</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:40:41</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44421.98658564815</v>
       </c>
       <c r="I116" t="n">
         <v>10</v>
@@ -8865,10 +8651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:36:18</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44421.98354166667</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8944,10 +8728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:36:03</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44421.98336805555</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9011,10 +8793,8 @@
           <t>5150630093</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:22:15</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44421.97378472222</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9086,10 +8866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:21:09</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44421.97302083333</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9165,10 +8943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:18:45</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44421.97135416666</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9232,10 +9008,8 @@
           <t>5149281264</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:17:09</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44421.97024305556</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9311,10 +9085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:12:02</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44421.96668981481</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9382,10 +9154,8 @@
           <t>5151072185</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:09:20</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44421.96481481481</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9449,10 +9219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:07:47</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44421.96373842593</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9520,10 +9288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:06:03</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44421.96253472222</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9587,10 +9353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:04:05</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44421.96116898148</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9658,10 +9422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:01:49</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44421.95959490741</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9725,10 +9487,8 @@
           <t>5150163054</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:58:01</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44421.95695601852</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9796,10 +9556,8 @@
           <t>5148921302</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:57:12</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44421.95638888889</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9867,10 +9625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:51:55</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44421.95271990741</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9946,10 +9702,8 @@
           <t>5148921302</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:48:33</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44421.95038194444</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10021,10 +9775,8 @@
           <t>5149411537</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:38:10</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44421.9431712963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10100,10 +9852,8 @@
           <t>5150749841</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:37:17</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44421.94255787037</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10179,10 +9929,8 @@
           <t>5150163054</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:34:39</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44421.94072916666</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10254,10 +10002,8 @@
           <t>5150337691</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:32:19</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44421.93910879629</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10321,10 +10067,8 @@
           <t>5150691172</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:31:11</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44421.93832175926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10388,10 +10132,8 @@
           <t>5149936653</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:27:27</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44421.93572916667</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10455,10 +10197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:26:33</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44421.93510416667</v>
       </c>
       <c r="I139" t="n">
         <v>5</v>
@@ -10534,10 +10274,8 @@
           <t>5150641277</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:25:45</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44421.93454861111</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10609,10 +10347,8 @@
           <t>5150630093</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:24:28</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44421.9336574074</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10684,10 +10420,8 @@
           <t>5148921302</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:19:04</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44421.92990740741</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10759,10 +10493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:14:19</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44421.9266087963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10830,10 +10562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:04:43</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44421.91994212963</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10905,10 +10635,8 @@
           <t>5150385006</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:00:37</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44421.91709490741</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10980,10 +10708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:57:13</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44421.91473379629</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11059,10 +10785,8 @@
           <t>5150343424</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:56:54</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44421.91451388889</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11126,10 +10850,8 @@
           <t>5150337691</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:56:15</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44421.9140625</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11197,10 +10919,8 @@
           <t>5149569935</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:49:16</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44421.90921296296</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11264,10 +10984,8 @@
           <t>5150163054</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:47:58</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44421.90831018519</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11331,10 +11049,8 @@
           <t>5148921302</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:43:52</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44421.90546296296</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11402,10 +11118,8 @@
           <t>5148949952</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:43:50</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44421.90543981481</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11469,10 +11183,8 @@
           <t>5148921302</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:43:34</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44421.90525462963</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11542,10 +11254,8 @@
           <t>5148868286</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:43:27</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44421.90517361111</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11609,10 +11319,8 @@
           <t>5149936653</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:41:42</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44421.90395833334</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11676,10 +11384,8 @@
           <t>5150185898</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:40:41</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44421.90325231481</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11755,10 +11461,8 @@
           <t>5150163054</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:38:48</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44421.90194444444</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11826,10 +11530,8 @@
           <t>5150161846</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:38:25</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44421.90167824074</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11889,10 +11591,8 @@
           <t>5150151364</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:37:39</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44421.90114583333</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -11968,10 +11668,8 @@
           <t>5150143002</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:37:11</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44421.90082175926</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12047,10 +11745,8 @@
           <t>5150121806</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:34:49</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44421.89917824074</v>
       </c>
       <c r="I161" t="n">
         <v>9</v>
@@ -12114,10 +11810,8 @@
           <t>5150109910</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:34:15</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44421.89878472222</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12181,10 +11875,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:33:52</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44421.89851851852</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12252,10 +11944,8 @@
           <t>5150093988</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:32:28</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44421.8975462963</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12323,10 +12013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:31:25</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44421.89681712963</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12398,10 +12086,8 @@
           <t>5149569935</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:27:56</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44421.89439814815</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12469,10 +12155,8 @@
           <t>5150042752</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:27:25</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44421.89403935185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12540,10 +12224,8 @@
           <t>5150051160</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:27:10</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44421.89386574074</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12607,10 +12289,8 @@
           <t>5150028692</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:26:07</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44421.89313657407</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12678,10 +12358,8 @@
           <t>5150035030</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:25:22</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44421.89261574074</v>
       </c>
       <c r="I170" t="n">
         <v>11</v>
@@ -12749,10 +12427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:24:34</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44421.89206018519</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12820,10 +12496,8 @@
           <t>5149002523</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:23:49</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44421.89153935185</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12887,10 +12561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:20:57</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44421.88954861111</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12967,10 +12639,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:20:17</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44421.88908564814</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13034,10 +12704,8 @@
           <t>5149473368</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:17:35</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44421.88721064815</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13101,10 +12769,8 @@
           <t>5149936653</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:16:14</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44421.88627314815</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13168,10 +12834,8 @@
           <t>5149411537</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:13:19</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44421.88424768519</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13243,10 +12907,8 @@
           <t>5149899151</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:13:16</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44421.88421296296</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
@@ -13322,10 +12984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:11:54</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44421.88326388889</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13389,10 +13049,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:11:33</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44421.88302083333</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13464,10 +13122,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:02:42</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44421.876875</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13535,10 +13191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:57:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44421.8731712963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13606,10 +13260,8 @@
           <t>5149116937</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:56:37</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44421.87265046296</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13677,10 +13329,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:55:29</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44421.87186342593</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13744,10 +13394,8 @@
           <t>5148868286</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:53:32</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44421.87050925926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13811,10 +13459,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:53:15</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44421.8703125</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13882,10 +13528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:45:24</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44421.86486111111</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13957,10 +13601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:44:37</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44421.86431712963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14032,10 +13674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:44:33</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44421.86427083334</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14099,10 +13739,8 @@
           <t>5149621007</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:43:06</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44421.86326388889</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14170,10 +13808,8 @@
           <t>5149611920</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:42:35</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44421.8629050926</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14249,10 +13885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:41:40</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44421.86226851852</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14320,10 +13954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:39:55</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44421.86105324074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14391,10 +14023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:38:56</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44421.86037037037</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14462,10 +14092,8 @@
           <t>5149569935</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:38:44</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44421.86023148148</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14529,10 +14157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:38:38</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44421.86016203704</v>
       </c>
       <c r="I196" t="n">
         <v>2</v>
@@ -14592,10 +14218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:38:19</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44421.85994212963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14667,10 +14291,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:37:05</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44421.85908564815</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14738,10 +14360,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:35:34</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44421.85803240741</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14809,10 +14429,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:35:02</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44421.85766203704</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14880,10 +14498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:33:18</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44421.85645833334</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14951,10 +14567,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:32:03</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44421.85559027778</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15022,10 +14636,8 @@
           <t>5149509308</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:31:43</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44421.8553587963</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15089,10 +14701,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:28:32</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44421.85314814815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15164,10 +14774,8 @@
           <t>5149478451</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:28:22</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44421.85303240741</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15243,10 +14851,8 @@
           <t>5149473368</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:28:03</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44421.8528125</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15318,10 +14924,8 @@
           <t>5149480165</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:27:31</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44421.85244212963</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15398,10 +15002,8 @@
           <t>5148774960</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:26:13</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44421.85153935185</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15469,10 +15071,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:24:35</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44421.85040509259</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15548,10 +15148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:21:39</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44421.84836805556</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15619,10 +15217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:21:39</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44421.84836805556</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15698,10 +15294,8 @@
           <t>5148857208</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:20:54</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44421.84784722222</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15771,10 +15365,8 @@
           <t>5149281264</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:20:43</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44421.8477199074</v>
       </c>
       <c r="I213" t="n">
         <v>5</v>
@@ -15835,10 +15427,8 @@
           <t>5149411537</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:20:27</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44421.84753472222</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -15914,10 +15504,8 @@
           <t>5149399618</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:19:52</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44421.84712962963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15993,10 +15581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:19:28</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44421.84685185185</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16072,10 +15658,8 @@
           <t>5149017631</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:19:02</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44421.84655092593</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16143,10 +15727,8 @@
           <t>5149386115</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:17:56</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44421.84578703704</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16214,10 +15796,8 @@
           <t>5149381650</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:17:30</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44421.84548611111</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16285,10 +15865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:16:58</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44421.84511574074</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16360,10 +15938,8 @@
           <t>5149376464</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:16:46</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44421.84497685185</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16423,10 +15999,8 @@
           <t>5149281264</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:16:35</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44421.84484953704</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -16494,10 +16068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:15:57</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44421.84440972222</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16565,10 +16137,8 @@
           <t>5149357498</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:15:06</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44421.84381944445</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16637,10 +16207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:12:02</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44421.84168981481</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16716,10 +16284,8 @@
           <t>5149206857</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:11:59</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44421.84165509259</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16791,10 +16357,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:09:38</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44421.84002314815</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16870,10 +16434,8 @@
           <t>5148774960</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:08:35</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44421.83929398148</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16937,10 +16499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:08:30</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44421.83923611111</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17012,10 +16572,8 @@
           <t>5149062680</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:08:28</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44421.83921296296</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17087,10 +16645,8 @@
           <t>5149281264</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:07:51</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44421.83878472223</v>
       </c>
       <c r="I231" t="n">
         <v>4</v>
@@ -17162,10 +16718,8 @@
           <t>5149281264</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:06:48</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44421.83805555556</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17243,10 +16797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:05:33</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44421.8371875</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17318,10 +16870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:02:35</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44421.83512731481</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17389,10 +16939,8 @@
           <t>5149216097</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:00:09</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44421.8334375</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17460,10 +17008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:00:04</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44421.83337962963</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17539,10 +17085,8 @@
           <t>5149206857</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:59:18</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44421.83284722222</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17618,10 +17162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:59:12</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44421.83277777778</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17685,10 +17227,8 @@
           <t>5149199614</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:59:06</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44421.83270833334</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17748,10 +17288,8 @@
           <t>5149116937</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:58:51</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44421.83253472222</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17819,10 +17357,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:58:49</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44421.83251157407</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17886,10 +17422,8 @@
           <t>5148744968</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:58:48</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44421.8325</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17953,10 +17487,8 @@
           <t>5149200639</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:58:36</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44421.83236111111</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18020,10 +17552,8 @@
           <t>5149188027</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:57:52</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44421.83185185185</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18099,10 +17629,8 @@
           <t>5148744968</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:57:33</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44421.83163194444</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18171,10 +17699,8 @@
           <t>5149190985</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:57:30</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44421.83159722222</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18238,10 +17764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:57:26</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44421.83155092593</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -18309,10 +17833,8 @@
           <t>5149190164</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:57:16</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44421.83143518519</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18380,10 +17902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:57:15</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44421.83142361111</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18451,10 +17971,8 @@
           <t>5149170679</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:55:49</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44421.83042824074</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18518,10 +18036,8 @@
           <t>5149164744</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:55:36</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44421.83027777778</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18597,10 +18113,8 @@
           <t>5148714647</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:55:22</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44421.83011574074</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18668,10 +18182,8 @@
           <t>5149116937</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:55:18</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44421.83006944445</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18747,10 +18259,8 @@
           <t>5149163181</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:55:07</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44421.82994212963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18818,10 +18328,8 @@
           <t>5149149636</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:54:02</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44421.82918981482</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18893,10 +18401,8 @@
           <t>5148888526</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:53:46</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44421.82900462963</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18964,10 +18470,8 @@
           <t>5149147804</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:53:29</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44421.82880787037</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19043,10 +18547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:52:40</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44421.82824074074</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19114,10 +18616,8 @@
           <t>5149140423</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:52:37</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44421.82820601852</v>
       </c>
       <c r="I259" t="n">
         <v>8</v>
@@ -19181,10 +18681,8 @@
           <t>5148981092</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:52:33</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44421.82815972222</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -19252,10 +18750,8 @@
           <t>5149138345</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:52:25</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44421.82806712963</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19319,10 +18815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:51:32</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44421.82745370371</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19386,10 +18880,8 @@
           <t>5149131112</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:51:31</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44421.82744212963</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19461,10 +18953,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:51:23</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44421.82734953704</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19541,10 +19031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:51:22</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44421.82733796296</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19612,10 +19100,8 @@
           <t>5149119621</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:51:02</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44421.82710648148</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19679,10 +19165,8 @@
           <t>5148743535</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:50:51</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44421.82697916667</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19758,10 +19242,8 @@
           <t>5148949952</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:50:30</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44421.82673611111</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19837,10 +19319,8 @@
           <t>5149116937</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:50:13</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44421.82653935185</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19908,10 +19388,8 @@
           <t>5149113157</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:50:13</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44421.82653935185</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -19983,10 +19461,8 @@
           <t>5149104833</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:49:34</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44421.82608796296</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20062,10 +19538,8 @@
           <t>5149103994</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:49:18</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44421.82590277777</v>
       </c>
       <c r="I272" t="n">
         <v>15</v>
@@ -20133,10 +19607,8 @@
           <t>5149103854</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:49:16</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44421.82587962963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20208,10 +19680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:48:34</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44421.82539351852</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20287,10 +19757,8 @@
           <t>5149068908</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:45:27</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44421.82322916666</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20362,10 +19830,8 @@
           <t>5149068634</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:45:23</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44421.82318287037</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20437,10 +19903,8 @@
           <t>5149062680</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:44:49</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44421.82278935185</v>
       </c>
       <c r="I277" t="n">
         <v>5</v>
@@ -20504,10 +19968,8 @@
           <t>5149059228</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:44:38</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44421.82266203704</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20579,10 +20041,8 @@
           <t>5148756041</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:44:18</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44421.82243055556</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20658,10 +20118,8 @@
           <t>5148986619</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:44:02</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44421.82224537037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20737,10 +20195,8 @@
           <t>5149048263</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:43:20</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44421.82175925926</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20817,10 +20273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:42:51</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44421.82142361111</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20898,10 +20352,8 @@
           <t>5149039449</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:42:46</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44421.82136574074</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20970,10 +20422,8 @@
           <t>5148756041</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:42:34</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44421.82122685185</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21049,10 +20499,8 @@
           <t>5148868286</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:42:14</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44421.82099537037</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21120,10 +20568,8 @@
           <t>5148774960</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:41:14</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44421.82030092592</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21191,10 +20637,8 @@
           <t>5148743535</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:40:10</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44421.81956018518</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21271,10 +20715,8 @@
           <t>5149018812</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:40:06</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44421.81951388889</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21338,10 +20780,8 @@
           <t>5148756041</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:39:43</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44421.81924768518</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21417,10 +20857,8 @@
           <t>5149017631</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:39:42</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44421.81923611111</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21488,10 +20926,8 @@
           <t>5149012274</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:39:17</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44421.81894675926</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21559,10 +20995,8 @@
           <t>5148986619</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:39:16</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44421.81893518518</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21638,10 +21072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:39:07</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44421.81883101852</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21710,10 +21142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:39:05</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44421.81880787037</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21789,10 +21219,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:39:01</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44421.81876157408</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21868,10 +21296,8 @@
           <t>5149015382</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:38:56</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44421.81870370371</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21939,10 +21365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:38:54</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44421.81868055555</v>
       </c>
       <c r="I297" t="n">
         <v>3</v>
@@ -22002,10 +21426,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:38:31</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44421.81841435185</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22073,10 +21495,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:38:31</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44421.81841435185</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22144,10 +21564,8 @@
           <t>5149002523</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:37:57</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44421.81802083334</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22219,10 +21637,8 @@
           <t>5148714647</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:37:49</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44421.81792824074</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22294,10 +21710,8 @@
           <t>5149001907</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:37:47</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44421.81790509259</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22365,10 +21779,8 @@
           <t>5148850790</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:37:31</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44421.81771990741</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22428,10 +21840,8 @@
           <t>5148743535</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:37:25</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44421.81765046297</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22495,10 +21905,8 @@
           <t>5148984054</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:36:46</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44421.81719907407</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22562,10 +21970,8 @@
           <t>5148987490</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:36:32</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44421.81703703704</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22641,10 +22047,8 @@
           <t>5148978187</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:36:29</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44421.81700231481</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22720,10 +22124,8 @@
           <t>5148986619</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:36:18</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44421.816875</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22799,10 +22201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:36:04</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44421.81671296297</v>
       </c>
       <c r="I309" t="n">
         <v>6</v>
@@ -22866,10 +22266,8 @@
           <t>5148981203</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:35:53</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44421.81658564815</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -22941,10 +22339,8 @@
           <t>5148981092</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:35:52</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44421.81657407407</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23008,10 +22404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:35:37</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44421.81640046297</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23087,10 +22481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:35:20</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44421.8162037037</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23166,10 +22558,8 @@
           <t>5148966769</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:34:31</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44421.81563657407</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23233,10 +22623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:34:03</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44421.8153125</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23308,10 +22696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:33:58</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44421.81525462963</v>
       </c>
       <c r="I316" t="n">
         <v>5</v>
@@ -23379,10 +22765,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:33:56</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44421.81523148148</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23458,10 +22842,8 @@
           <t>5148949952</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:33:40</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44421.81504629629</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23537,10 +22919,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:33:33</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44421.81496527778</v>
       </c>
       <c r="I319" t="n">
         <v>3</v>
@@ -23608,10 +22988,8 @@
           <t>5148952296</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:33:08</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44421.81467592593</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23679,10 +23057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:32:06</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44421.81395833333</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23750,10 +23126,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:31:29</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44421.81353009259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23829,10 +23203,8 @@
           <t>5148928585</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:31:14</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44421.81335648148</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -23900,10 +23272,8 @@
           <t>5148927877</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:31:02</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44421.81321759259</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23967,10 +23337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:30:59</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44421.81318287037</v>
       </c>
       <c r="I325" t="n">
         <v>2</v>
@@ -24034,10 +23402,8 @@
           <t>5148927484</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:30:56</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44421.81314814815</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24109,10 +23475,8 @@
           <t>5148926576</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:30:40</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44421.81296296296</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24176,10 +23540,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:30:40</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44421.81296296296</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24255,10 +23617,8 @@
           <t>5148926053</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:30:32</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44421.81287037037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24318,10 +23678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:30:22</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44421.81275462963</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -24385,10 +23743,8 @@
           <t>5148921302</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:29:45</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44421.81232638889</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24460,10 +23816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:29:33</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44421.8121875</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24535,10 +23889,8 @@
           <t>5148731582</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:29:32</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44421.81217592592</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24606,10 +23958,8 @@
           <t>5148648309</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:29:30</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44421.81215277778</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -24677,10 +24027,8 @@
           <t>5148909900</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:29:18</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44421.81201388889</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24748,10 +24096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:29:10</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44421.8119212963</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24827,10 +24173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:28:57</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44421.81177083333</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24902,10 +24246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:28:25</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44421.81140046296</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -24969,10 +24311,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:28:13</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44421.81126157408</v>
       </c>
       <c r="I339" t="n">
         <v>3</v>
@@ -25040,10 +24380,8 @@
           <t>5148868286</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:27:57</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44421.81107638889</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -25115,10 +24453,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:27:53</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44421.81103009259</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25182,10 +24518,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:27:51</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44421.81100694444</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25261,10 +24595,8 @@
           <t>5148888526</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:26:58</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44421.81039351852</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25336,10 +24668,8 @@
           <t>5148895073</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:26:53</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44421.81033564815</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25403,10 +24733,8 @@
           <t>5148884614</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:26:43</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44421.81021990741</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25474,10 +24802,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:26:11</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44421.80984953704</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25549,10 +24875,8 @@
           <t>5148882705</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:26:05</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44421.80978009259</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25620,10 +24944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:25:48</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44421.80958333334</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25695,10 +25017,8 @@
           <t>5148793923</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:25:07</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44421.8091087963</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25766,10 +25086,8 @@
           <t>5148696122</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:24:52</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44421.80893518519</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25841,10 +25159,8 @@
           <t>5148868286</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:24:36</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44421.80875</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -25908,10 +25224,8 @@
           <t>5148857208</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:23:49</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44421.80820601852</v>
       </c>
       <c r="I352" t="n">
         <v>4</v>
@@ -25983,10 +25297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:23:42</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44421.808125</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26062,10 +25374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:23:29</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44421.80797453703</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26138,10 +25448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:23:22</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44421.80789351852</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26205,10 +25513,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:23:22</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44421.80789351852</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26284,10 +25590,8 @@
           <t>5148855347</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:23:14</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44421.80780092593</v>
       </c>
       <c r="I357" t="n">
         <v>2</v>
@@ -26355,10 +25659,8 @@
           <t>5148844272</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:22:54</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44421.80756944444</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26434,10 +25736,8 @@
           <t>5148843863</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:22:46</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44421.80747685185</v>
       </c>
       <c r="I359" t="n">
         <v>4</v>
@@ -26514,10 +25814,8 @@
           <t>5148842346</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:22:19</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44421.80716435185</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26585,10 +25883,8 @@
           <t>5148850790</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:22:03</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44421.80697916666</v>
       </c>
       <c r="I361" t="n">
         <v>9</v>
@@ -26664,10 +25960,8 @@
           <t>5148841494</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:22:02</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44421.80696759259</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26739,10 +26033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:21:56</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44421.80689814815</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26814,10 +26106,8 @@
           <t>5148743535</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:21:52</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44421.80685185185</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26881,10 +26171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:21:50</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44421.8068287037</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -26960,10 +26248,8 @@
           <t>5148834868</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:21:33</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44421.80663194445</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27027,10 +26313,8 @@
           <t>5148838350</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:21:16</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44421.80643518519</v>
       </c>
       <c r="I367" t="n">
         <v>22</v>
@@ -27098,10 +26382,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:21:15</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44421.80642361111</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27173,10 +26455,8 @@
           <t>5148744968</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:20:47</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44421.80609953704</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27253,10 +26533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:20:45</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44421.80607638889</v>
       </c>
       <c r="I370" t="n">
         <v>84</v>
@@ -27324,10 +26602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:20:23</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44421.80582175926</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27391,10 +26667,8 @@
           <t>5148823855</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:19:58</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44421.80553240741</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27470,10 +26744,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:19:56</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44421.80550925926</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27549,10 +26821,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:19:40</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44421.80532407408</v>
       </c>
       <c r="I374" t="n">
         <v>5</v>
@@ -27620,10 +26890,8 @@
           <t>5148744968</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:19:31</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44421.80521990741</v>
       </c>
       <c r="I375" t="n">
         <v>6</v>
@@ -27691,10 +26959,8 @@
           <t>5148714647</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:19:15</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44421.80503472222</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27762,10 +27028,8 @@
           <t>5148820507</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:19:00</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44421.80486111111</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27833,10 +27097,8 @@
           <t>5148804492</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:18:21</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44421.80440972222</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27912,10 +27174,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:18:21</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44421.80440972222</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -27987,10 +27247,8 @@
           <t>5148807239</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:18:05</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44421.80422453704</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28066,10 +27324,8 @@
           <t>5148799400</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:18:05</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44421.80422453704</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28137,10 +27393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:52</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44421.80407407408</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28216,10 +27470,8 @@
           <t>5148806268</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:49</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44421.80403935185</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28287,10 +27539,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:47</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44421.80401620371</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28354,10 +27604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:42</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44421.80395833333</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28421,10 +27669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:38</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44421.80391203704</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28500,10 +27746,8 @@
           <t>5148793923</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:08</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44421.80356481481</v>
       </c>
       <c r="I387" t="n">
         <v>7</v>
@@ -28579,10 +27823,8 @@
           <t>5148714647</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:06</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44421.80354166667</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28646,10 +27888,8 @@
           <t>5148800081</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:00</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44421.80347222222</v>
       </c>
       <c r="I389" t="n">
         <v>14</v>
@@ -28717,10 +27957,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:54</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44421.80340277778</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28788,10 +28026,8 @@
           <t>5148696122</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:49</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44421.80334490741</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28867,10 +28103,8 @@
           <t>5148744968</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:47</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44421.80332175926</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28938,10 +28172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:41</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44421.80325231481</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29016,10 +28248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:33</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44421.80315972222</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29083,10 +28313,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:27</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44421.80309027778</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29162,10 +28390,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:11</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44421.80290509259</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29233,10 +28459,8 @@
           <t>5148740089</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:35</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44421.80248842593</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29300,10 +28524,8 @@
           <t>5148744968</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:35</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44421.80248842593</v>
       </c>
       <c r="I398" t="n">
         <v>33</v>
@@ -29367,10 +28589,8 @@
           <t>5148785154</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:32</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44421.80245370371</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29446,10 +28666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:29</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44421.80241898148</v>
       </c>
       <c r="I400" t="n">
         <v>218</v>
@@ -29525,10 +28743,8 @@
           <t>5148774960</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:29</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44421.80241898148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29592,10 +28808,8 @@
           <t>5148781353</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:21</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44421.80232638889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29671,10 +28885,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:12</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44421.80222222222</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -29742,10 +28954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:08</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44421.80217592593</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29817,10 +29027,8 @@
           <t>5148773859</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:08</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44421.80217592593</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29896,10 +29104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:15:07</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44421.80216435185</v>
       </c>
       <c r="I406" t="n">
         <v>711</v>
@@ -29963,10 +29169,8 @@
           <t>5148756041</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:14:41</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44421.80186342593</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30043,10 +29247,8 @@
           <t>5148767502</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:54</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44421.80131944444</v>
       </c>
       <c r="I408" t="n">
         <v>5</v>
@@ -30120,10 +29322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:52</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44421.8012962963</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30187,10 +29387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:43</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44421.80119212963</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30266,10 +29464,8 @@
           <t>5148646066</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:42</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44421.80118055556</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30337,10 +29533,8 @@
           <t>5148757439</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:14</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44421.80085648148</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30416,10 +29610,8 @@
           <t>5148749781</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:10</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44421.80081018519</v>
       </c>
       <c r="I413" t="n">
         <v>7</v>
@@ -30495,10 +29687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:08</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44421.80078703703</v>
       </c>
       <c r="I414" t="n">
         <v>109</v>
@@ -30574,10 +29764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:53</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44421.80061342593</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30649,10 +29837,8 @@
           <t>5148756041</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:50</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44421.8005787037</v>
       </c>
       <c r="I416" t="n">
         <v>2</v>
@@ -30728,10 +29914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:48</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44421.80055555556</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30803,10 +29987,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:37</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44421.80042824074</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30882,10 +30064,8 @@
           <t>5148744968</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:31</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44421.8003587963</v>
       </c>
       <c r="I419" t="n">
         <v>11</v>
@@ -30961,10 +30141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:29</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44421.80033564815</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31036,10 +30214,8 @@
           <t>5148751887</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:24</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44421.80027777778</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31111,10 +30287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:23</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44421.8002662037</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31190,10 +30364,8 @@
           <t>5148743535</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:06</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44421.80006944444</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31270,10 +30442,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:04</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44421.8000462963</v>
       </c>
       <c r="I424" t="n">
         <v>6</v>
@@ -31349,10 +30519,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:11:52</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44421.79990740741</v>
       </c>
       <c r="I425" t="n">
         <v>4</v>
@@ -31428,10 +30596,8 @@
           <t>5148740736</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:11:16</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44421.79949074074</v>
       </c>
       <c r="I426" t="n">
         <v>11</v>
@@ -31509,10 +30675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:11:15</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44421.79947916666</v>
       </c>
       <c r="I427" t="n">
         <v>13</v>
@@ -31584,10 +30748,8 @@
           <t>5148740127</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:11:06</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44421.799375</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31647,10 +30809,8 @@
           <t>5148740089</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:11:05</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44421.79936342593</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31722,10 +30882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:10:56</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44421.79925925926</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31797,10 +30955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:10:48</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44421.79916666666</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31872,10 +31028,8 @@
           <t>5148714647</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:10:38</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44421.79905092593</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31943,10 +31097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:10:19</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44421.79883101852</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32022,10 +31174,8 @@
           <t>5148723956</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:10:16</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44421.79879629629</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32093,10 +31243,8 @@
           <t>5148722745</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:56</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44421.79856481482</v>
       </c>
       <c r="I435" t="n">
         <v>4</v>
@@ -32168,10 +31316,8 @@
           <t>5148722113</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:45</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44421.7984375</v>
       </c>
       <c r="I436" t="n">
         <v>2</v>
@@ -32247,10 +31393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:31</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44421.79827546296</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32326,10 +31470,8 @@
           <t>5148714647</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:28</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44421.79824074074</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32401,10 +31543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:25</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44421.79820601852</v>
       </c>
       <c r="I439" t="n">
         <v>4</v>
@@ -32480,10 +31620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:15</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44421.79809027778</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32559,10 +31697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:14</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44421.7980787037</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32642,10 +31778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:57</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44421.79788194445</v>
       </c>
       <c r="I442" t="n">
         <v>2</v>
@@ -32710,10 +31844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:57</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44421.79788194445</v>
       </c>
       <c r="I443" t="n">
         <v>61</v>
@@ -32785,10 +31917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:52</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44421.79782407408</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32864,10 +31994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:49</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44421.79778935185</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32935,10 +32063,8 @@
           <t>5148708727</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:49</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44421.79778935185</v>
       </c>
       <c r="I446" t="n">
         <v>3</v>
@@ -33006,10 +32132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:41</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44421.79769675926</v>
       </c>
       <c r="I447" t="n">
         <v>3</v>
@@ -33077,10 +32201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:30</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44421.79756944445</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33156,10 +32278,8 @@
           <t>5148698575</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:07:39</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44421.79697916667</v>
       </c>
       <c r="I449" t="n">
         <v>2</v>
@@ -33223,10 +32343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:07:32</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44421.79689814815</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33290,10 +32408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:07:12</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44421.79666666667</v>
       </c>
       <c r="I451" t="n">
         <v>19</v>
@@ -33353,10 +32469,8 @@
           <t>5148692620</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:07:06</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44421.79659722222</v>
       </c>
       <c r="I452" t="n">
         <v>15</v>
@@ -33424,10 +32538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:06:59</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44421.79651620371</v>
       </c>
       <c r="I453" t="n">
         <v>3</v>
@@ -33499,10 +32611,8 @@
           <t>5148696122</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:06:55</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44421.79646990741</v>
       </c>
       <c r="I454" t="n">
         <v>4</v>
@@ -33574,10 +32684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:06:23</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44421.79609953704</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33645,10 +32753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:06:08</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44421.79592592592</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33712,10 +32818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:05:54</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44421.79576388889</v>
       </c>
       <c r="I457" t="n">
         <v>18</v>
@@ -33791,10 +32895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:05:32</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44421.79550925926</v>
       </c>
       <c r="I458" t="n">
         <v>64</v>
@@ -33858,10 +32960,8 @@
           <t>5148681983</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:05:32</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44421.79550925926</v>
       </c>
       <c r="I459" t="n">
         <v>2</v>
@@ -33929,10 +33029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:05:25</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44421.79542824074</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34008,10 +33106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:05:05</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44421.79519675926</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34079,10 +33175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:05:05</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44421.79519675926</v>
       </c>
       <c r="I462" t="n">
         <v>22</v>
@@ -34158,10 +33252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:05:01</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44421.79515046296</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34229,10 +33321,8 @@
           <t>5148667151</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:04:15</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44421.79461805556</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34296,10 +33386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:04:08</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44421.79453703704</v>
       </c>
       <c r="I465" t="n">
         <v>2</v>
@@ -34367,10 +33455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:59</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44421.79443287037</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34438,10 +33524,8 @@
           <t>5148661666</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:52</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44421.79435185185</v>
       </c>
       <c r="I467" t="n">
         <v>5</v>
@@ -34517,10 +33601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:51</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44421.79434027777</v>
       </c>
       <c r="I468" t="n">
         <v>9</v>
@@ -34596,10 +33678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:28</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44421.79407407407</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34667,10 +33747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:18</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44421.79395833334</v>
       </c>
       <c r="I470" t="n">
         <v>623</v>
@@ -34738,10 +33816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:05</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44421.79380787037</v>
       </c>
       <c r="I471" t="n">
         <v>230</v>
@@ -34813,10 +33889,8 @@
           <t>5148653154</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:05</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44421.79380787037</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34884,10 +33958,8 @@
           <t>5148649194</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:03</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44421.79378472222</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34955,10 +34027,8 @@
           <t>5148657399</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:00</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44421.79375</v>
       </c>
       <c r="I474" t="n">
         <v>5</v>
@@ -35026,10 +34096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:54</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44421.79368055556</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35093,10 +34161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:48</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44421.79361111111</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35172,10 +34238,8 @@
           <t>5148652180</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:48</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44421.79361111111</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35239,10 +34303,8 @@
           <t>5148648309</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:46</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44421.79358796297</v>
       </c>
       <c r="I478" t="n">
         <v>16</v>
@@ -35318,10 +34380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:44</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44421.79356481481</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35393,10 +34453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:43</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44421.79355324074</v>
       </c>
       <c r="I480" t="n">
         <v>96</v>
@@ -35468,10 +34526,8 @@
           <t>5148656304</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:43</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44421.79355324074</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35539,10 +34595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:34</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44421.79344907407</v>
       </c>
       <c r="I482" t="n">
         <v>13</v>
@@ -35614,10 +34668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:31</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44421.79341435185</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35689,10 +34741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:27</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44421.79336805556</v>
       </c>
       <c r="I484" t="n">
         <v>4</v>
@@ -35768,10 +34818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:18</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44421.79326388889</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -35843,10 +34891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:09</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44421.79315972222</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35922,10 +34968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:07</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44421.79313657407</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36001,10 +35045,8 @@
           <t>5148646066</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:03</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44421.79309027778</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36072,10 +35114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:02</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44421.7930787037</v>
       </c>
       <c r="I489" t="n">
         <v>167</v>
@@ -36143,10 +35183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:47</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44421.7929050926</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -36222,10 +35260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:42</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44421.79284722222</v>
       </c>
       <c r="I491" t="n">
         <v>155</v>
@@ -36293,10 +35329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:33</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44421.79274305556</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36364,10 +35398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:31</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44421.7927199074</v>
       </c>
       <c r="I493" t="n">
         <v>42</v>
@@ -36435,10 +35467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:27</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44421.79267361111</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36502,10 +35532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:23</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44421.79262731481</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36577,10 +35605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:18</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44421.79256944444</v>
       </c>
       <c r="I496" t="n">
         <v>115</v>
@@ -36645,10 +35671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:09</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44421.79246527778</v>
       </c>
       <c r="I497" t="n">
         <v>352</v>
@@ -36716,10 +35740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:00:51</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44421.79225694444</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36787,10 +35809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:00:29</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44421.79200231482</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36862,10 +35882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:00:13</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44421.79181712963</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
